--- a/Results/Calculation/lda2vec-partial-ner.xlsx
+++ b/Results/Calculation/lda2vec-partial-ner.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C2">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D2">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
       <c r="G2">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="H2">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I2">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -464,10 +464,10 @@
         <v>199</v>
       </c>
       <c r="C3">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D3">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>18</v>
@@ -493,22 +493,22 @@
         <v>129</v>
       </c>
       <c r="C4">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>25</v>
       </c>
       <c r="F4">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="G4">
         <v>0.84</v>
       </c>
       <c r="H4">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="I4">
         <v>0.92</v>
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>319</v>
@@ -528,16 +528,16 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <v>0.82</v>
       </c>
       <c r="G5">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="H5">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I5">
         <v>0.84</v>

--- a/Results/Calculation/lda2vec-partial-ner.xlsx
+++ b/Results/Calculation/lda2vec-partial-ner.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C2">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="D2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="G2">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="H2">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="I2">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,28 +461,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C3">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D3">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="G3">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="H3">
         <v>0.8</v>
       </c>
       <c r="I3">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F4">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G4">
-        <v>0.84</v>
+        <v>0.65</v>
       </c>
       <c r="H4">
+        <v>0.78</v>
+      </c>
+      <c r="I4">
         <v>0.88</v>
-      </c>
-      <c r="I4">
-        <v>0.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,28 +519,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C5">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F5">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
       <c r="G5">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H5">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="I5">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
